--- a/tabular/other-data/2Z-domain A3 retrogenes.xlsx
+++ b/tabular/other-data/2Z-domain A3 retrogenes.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="2Z domain A3 retrogenes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="118">
   <si>
     <t>record_ID</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>mismatches</t>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
   <si>
     <t>Aotus_nancymaae</t>
@@ -382,12 +379,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,6 +513,24 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -821,7 +837,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -864,13 +880,14 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -899,11 +916,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1216,7 +1235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1240,107 +1259,104 @@
     <col min="10" max="10" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>169161</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
       <c r="H2">
         <v>1637358</v>
@@ -1360,67 +1376,64 @@
       <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" t="s">
-        <v>35</v>
+      <c r="N2">
+        <v>204</v>
       </c>
       <c r="O2">
-        <v>204</v>
+        <v>59.89</v>
       </c>
       <c r="P2">
-        <v>59.89</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="R2">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="S2">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="T2">
-        <v>196</v>
+        <v>561</v>
       </c>
       <c r="U2">
-        <v>561</v>
+        <v>1100</v>
       </c>
       <c r="V2">
-        <v>1100</v>
+        <v>182</v>
       </c>
       <c r="W2">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2">
         <v>68</v>
       </c>
-      <c r="Z2" s="1">
-        <v>43453.620763888888</v>
+      <c r="Y2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>169175</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2311795</v>
@@ -1432,7 +1445,7 @@
         <v>1152</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
         <v>33</v>
@@ -1440,67 +1453,64 @@
       <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
-        <v>35</v>
+      <c r="N3">
+        <v>228</v>
       </c>
       <c r="O3">
-        <v>228</v>
+        <v>61.658000000000001</v>
       </c>
       <c r="P3">
-        <v>61.658000000000001</v>
+        <v>2</v>
       </c>
       <c r="Q3">
+        <v>76</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>199</v>
+      </c>
+      <c r="T3">
+        <v>580</v>
+      </c>
+      <c r="U3">
+        <v>1152</v>
+      </c>
+      <c r="V3">
+        <v>193</v>
+      </c>
+      <c r="W3">
         <v>2</v>
       </c>
-      <c r="R3">
-        <v>76</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>199</v>
-      </c>
-      <c r="U3">
-        <v>580</v>
-      </c>
-      <c r="V3">
-        <v>1152</v>
-      </c>
-      <c r="W3">
-        <v>193</v>
-      </c>
       <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
         <v>69</v>
       </c>
-      <c r="Z3" s="1">
-        <v>43453.632754629631</v>
+      <c r="Y3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>169167</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>2704980</v>
@@ -1512,7 +1522,7 @@
         <v>1143</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
         <v>33</v>
@@ -1520,67 +1530,64 @@
       <c r="M4" t="s">
         <v>34</v>
       </c>
-      <c r="N4" t="s">
-        <v>35</v>
+      <c r="N4">
+        <v>234</v>
       </c>
       <c r="O4">
-        <v>234</v>
+        <v>64.55</v>
       </c>
       <c r="P4">
-        <v>64.55</v>
+        <v>7</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="R4">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="T4">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="U4">
-        <v>580</v>
+        <v>1140</v>
       </c>
       <c r="V4">
-        <v>1140</v>
+        <v>189</v>
       </c>
       <c r="W4">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
         <v>62</v>
       </c>
-      <c r="Z4" s="1">
-        <v>43453.625231481485</v>
+      <c r="Y4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>169148</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>5765481</v>
@@ -1592,7 +1599,7 @@
         <v>1152</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
         <v>33</v>
@@ -1600,67 +1607,64 @@
       <c r="M5" t="s">
         <v>34</v>
       </c>
-      <c r="N5" t="s">
-        <v>35</v>
+      <c r="N5">
+        <v>237</v>
       </c>
       <c r="O5">
-        <v>237</v>
+        <v>65.284999999999997</v>
       </c>
       <c r="P5">
-        <v>65.284999999999997</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="R5">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="T5">
-        <v>199</v>
+        <v>580</v>
       </c>
       <c r="U5">
-        <v>580</v>
+        <v>1152</v>
       </c>
       <c r="V5">
-        <v>1152</v>
+        <v>193</v>
       </c>
       <c r="W5">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>2</v>
-      </c>
-      <c r="Y5">
         <v>62</v>
       </c>
-      <c r="Z5" s="1">
-        <v>43453.61546296296</v>
+      <c r="Y5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>169523</v>
       </c>
       <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
         <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
       </c>
       <c r="H6">
         <v>85293510</v>
@@ -1672,7 +1676,7 @@
         <v>1119</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
@@ -1680,67 +1684,64 @@
       <c r="M6" t="s">
         <v>34</v>
       </c>
-      <c r="N6" t="s">
-        <v>35</v>
+      <c r="N6">
+        <v>214</v>
       </c>
       <c r="O6">
-        <v>214</v>
+        <v>59.067</v>
       </c>
       <c r="P6">
-        <v>59.067</v>
+        <v>4</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="R6">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="T6">
-        <v>199</v>
+        <v>547</v>
       </c>
       <c r="U6">
-        <v>547</v>
+        <v>1119</v>
       </c>
       <c r="V6">
-        <v>1119</v>
+        <v>193</v>
       </c>
       <c r="W6">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>2</v>
-      </c>
-      <c r="Y6">
         <v>74</v>
       </c>
-      <c r="Z6" s="1">
-        <v>43453.633067129631</v>
+      <c r="Y6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>10866</v>
       </c>
       <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>54182614</v>
@@ -1752,75 +1753,72 @@
         <v>1143</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N7">
+        <v>217</v>
       </c>
       <c r="O7">
-        <v>217</v>
+        <v>61.701999999999998</v>
       </c>
       <c r="P7">
-        <v>61.701999999999998</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="R7">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="S7">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="T7">
-        <v>195</v>
+        <v>583</v>
       </c>
       <c r="U7">
-        <v>583</v>
+        <v>1140</v>
       </c>
       <c r="V7">
-        <v>1140</v>
+        <v>188</v>
       </c>
       <c r="W7">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
         <v>67</v>
       </c>
-      <c r="Z7" s="1">
-        <v>43453.621932870374</v>
+      <c r="Y7" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>10861</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8">
         <v>32771716</v>
@@ -1832,75 +1830,72 @@
         <v>1143</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N8">
+        <v>236</v>
       </c>
       <c r="O8">
-        <v>236</v>
+        <v>65.078999999999994</v>
       </c>
       <c r="P8">
-        <v>65.078999999999994</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="R8">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="T8">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="U8">
-        <v>580</v>
+        <v>1140</v>
       </c>
       <c r="V8">
-        <v>1140</v>
+        <v>189</v>
       </c>
       <c r="W8">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="X8">
-        <v>2</v>
-      </c>
-      <c r="Y8">
         <v>61</v>
       </c>
-      <c r="Z8" s="1">
-        <v>43453.621921296297</v>
+      <c r="Y8" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>8741</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>125735140</v>
@@ -1912,75 +1907,72 @@
         <v>1041</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>218</v>
       </c>
       <c r="O9">
-        <v>218</v>
+        <v>61.17</v>
       </c>
       <c r="P9">
-        <v>61.17</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="R9">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="T9">
-        <v>194</v>
+        <v>484</v>
       </c>
       <c r="U9">
-        <v>484</v>
+        <v>1041</v>
       </c>
       <c r="V9">
-        <v>1041</v>
+        <v>188</v>
       </c>
       <c r="W9">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
         <v>68</v>
       </c>
-      <c r="Z9" s="1">
-        <v>43453.620972222219</v>
+      <c r="Y9" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>169977</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
       </c>
       <c r="H10">
         <v>10668464</v>
@@ -1992,7 +1984,7 @@
         <v>1110</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
         <v>33</v>
@@ -2000,67 +1992,64 @@
       <c r="M10" t="s">
         <v>34</v>
       </c>
-      <c r="N10" t="s">
-        <v>35</v>
+      <c r="N10">
+        <v>226</v>
       </c>
       <c r="O10">
-        <v>226</v>
+        <v>62.234000000000002</v>
       </c>
       <c r="P10">
-        <v>62.234000000000002</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="R10">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="S10">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="T10">
-        <v>195</v>
+        <v>550</v>
       </c>
       <c r="U10">
-        <v>550</v>
+        <v>1107</v>
       </c>
       <c r="V10">
-        <v>1107</v>
+        <v>188</v>
       </c>
       <c r="W10">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="X10">
-        <v>2</v>
-      </c>
-      <c r="Y10">
         <v>66</v>
       </c>
-      <c r="Z10" s="1">
-        <v>43453.62054398148</v>
+      <c r="Y10" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>169969</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>55</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H11">
         <v>2999880</v>
@@ -2072,7 +2061,7 @@
         <v>1110</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
         <v>33</v>
@@ -2080,67 +2069,64 @@
       <c r="M11" t="s">
         <v>34</v>
       </c>
-      <c r="N11" t="s">
-        <v>35</v>
+      <c r="N11">
+        <v>216</v>
       </c>
       <c r="O11">
-        <v>216</v>
+        <v>61.375999999999998</v>
       </c>
       <c r="P11">
-        <v>61.375999999999998</v>
+        <v>4</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="R11">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="T11">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="U11">
-        <v>547</v>
+        <v>1107</v>
       </c>
       <c r="V11">
-        <v>1107</v>
+        <v>189</v>
       </c>
       <c r="W11">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="X11">
-        <v>2</v>
-      </c>
-      <c r="Y11">
         <v>68</v>
       </c>
-      <c r="Z11" s="1">
-        <v>43453.631122685183</v>
+      <c r="Y11" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>169987</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>55</v>
       </c>
-      <c r="E12" t="s">
-        <v>56</v>
-      </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12">
         <v>2994768</v>
@@ -2152,75 +2138,72 @@
         <v>1110</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="L12" t="s">
         <v>33</v>
       </c>
       <c r="M12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N12">
+        <v>210</v>
       </c>
       <c r="O12">
-        <v>210</v>
+        <v>58.548999999999999</v>
       </c>
       <c r="P12">
-        <v>58.548999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="R12">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="T12">
-        <v>199</v>
+        <v>538</v>
       </c>
       <c r="U12">
-        <v>538</v>
+        <v>1110</v>
       </c>
       <c r="V12">
-        <v>1110</v>
+        <v>193</v>
       </c>
       <c r="W12">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
         <v>75</v>
       </c>
-      <c r="Z12" s="1">
-        <v>43453.624189814815</v>
+      <c r="Y12" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>169978</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13">
         <v>1623572</v>
@@ -2232,7 +2215,7 @@
         <v>1167</v>
       </c>
       <c r="K13" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
         <v>33</v>
@@ -2240,67 +2223,64 @@
       <c r="M13" t="s">
         <v>34</v>
       </c>
-      <c r="N13" t="s">
-        <v>35</v>
+      <c r="N13">
+        <v>230</v>
       </c>
       <c r="O13">
-        <v>230</v>
+        <v>62.694000000000003</v>
       </c>
       <c r="P13">
-        <v>62.694000000000003</v>
+        <v>2</v>
       </c>
       <c r="Q13">
+        <v>77</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13">
+        <v>199</v>
+      </c>
+      <c r="T13">
+        <v>580</v>
+      </c>
+      <c r="U13">
+        <v>1152</v>
+      </c>
+      <c r="V13">
+        <v>193</v>
+      </c>
+      <c r="W13">
         <v>2</v>
       </c>
-      <c r="R13">
-        <v>77</v>
-      </c>
-      <c r="S13">
-        <v>10</v>
-      </c>
-      <c r="T13">
-        <v>199</v>
-      </c>
-      <c r="U13">
-        <v>580</v>
-      </c>
-      <c r="V13">
-        <v>1152</v>
-      </c>
-      <c r="W13">
-        <v>193</v>
-      </c>
       <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
         <v>67</v>
       </c>
-      <c r="Z13" s="1">
-        <v>43453.632268518515</v>
+      <c r="Y13" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>176070</v>
       </c>
       <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>68</v>
       </c>
       <c r="H14">
         <v>218352</v>
@@ -2312,75 +2292,72 @@
         <v>1145</v>
       </c>
       <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" t="s">
-        <v>33</v>
-      </c>
       <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N14">
+        <v>228</v>
       </c>
       <c r="O14">
-        <v>228</v>
+        <v>77.143000000000001</v>
       </c>
       <c r="P14">
-        <v>77.143000000000001</v>
+        <v>10</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="R14">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="S14">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="T14">
-        <v>190</v>
+        <v>699</v>
       </c>
       <c r="U14">
-        <v>699</v>
+        <v>1118</v>
       </c>
       <c r="V14">
-        <v>1118</v>
+        <v>140</v>
       </c>
       <c r="W14">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
         <v>32</v>
       </c>
-      <c r="Z14" s="1">
-        <v>43453.61859953704</v>
+      <c r="Y14" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>163305</v>
       </c>
       <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
       </c>
       <c r="H15">
         <v>8637111</v>
@@ -2392,75 +2369,72 @@
         <v>1081</v>
       </c>
       <c r="K15" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N15">
+        <v>153</v>
       </c>
       <c r="O15">
-        <v>153</v>
+        <v>45.789000000000001</v>
       </c>
       <c r="P15">
-        <v>45.789000000000001</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="R15">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="T15">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="U15">
-        <v>37</v>
+        <v>603</v>
       </c>
       <c r="V15">
-        <v>603</v>
+        <v>190</v>
       </c>
       <c r="W15">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
         <v>101</v>
       </c>
-      <c r="Z15" s="1">
-        <v>43453.630497685182</v>
+      <c r="Y15" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>178590</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>72</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>73</v>
       </c>
-      <c r="E16" t="s">
-        <v>74</v>
-      </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16">
         <v>21575698</v>
@@ -2472,75 +2446,72 @@
         <v>1072</v>
       </c>
       <c r="K16" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N16">
+        <v>154</v>
       </c>
       <c r="O16">
-        <v>154</v>
+        <v>45.250999999999998</v>
       </c>
       <c r="P16">
-        <v>45.250999999999998</v>
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="R16">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="S16">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="T16">
-        <v>190</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>10</v>
+        <v>537</v>
       </c>
       <c r="V16">
-        <v>537</v>
+        <v>179</v>
       </c>
       <c r="W16">
-        <v>179</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16">
         <v>95</v>
       </c>
-      <c r="Z16" s="1">
-        <v>43453.621180555558</v>
+      <c r="Y16" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:25">
       <c r="A17">
         <v>173448</v>
       </c>
       <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>73</v>
       </c>
-      <c r="E17" t="s">
-        <v>74</v>
-      </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H17">
         <v>10346245</v>
@@ -2552,75 +2523,72 @@
         <v>1143</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
-      </c>
-      <c r="N17" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <v>147</v>
       </c>
       <c r="O17">
-        <v>147</v>
+        <v>47.826000000000001</v>
       </c>
       <c r="P17">
-        <v>47.826000000000001</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="R17">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="S17">
+        <v>161</v>
+      </c>
+      <c r="T17">
+        <v>148</v>
+      </c>
+      <c r="U17">
+        <v>627</v>
+      </c>
+      <c r="V17">
+        <v>161</v>
+      </c>
+      <c r="W17">
         <v>1</v>
       </c>
-      <c r="T17">
-        <v>161</v>
-      </c>
-      <c r="U17">
-        <v>148</v>
-      </c>
-      <c r="V17">
-        <v>627</v>
-      </c>
-      <c r="W17">
-        <v>161</v>
-      </c>
       <c r="X17">
-        <v>1</v>
-      </c>
-      <c r="Y17">
         <v>83</v>
       </c>
-      <c r="Z17" s="1">
-        <v>43453.627442129633</v>
+      <c r="Y17" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:25">
       <c r="A18">
         <v>173442</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>73</v>
       </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18">
         <v>2596058</v>
@@ -2632,75 +2600,72 @@
         <v>1086</v>
       </c>
       <c r="K18" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="L18" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N18" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N18">
+        <v>150</v>
       </c>
       <c r="O18">
-        <v>150</v>
+        <v>45.789000000000001</v>
       </c>
       <c r="P18">
-        <v>45.789000000000001</v>
+        <v>6</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="R18">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="T18">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="U18">
-        <v>37</v>
+        <v>603</v>
       </c>
       <c r="V18">
-        <v>603</v>
+        <v>190</v>
       </c>
       <c r="W18">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>2</v>
-      </c>
-      <c r="Y18">
         <v>101</v>
       </c>
-      <c r="Z18" s="1">
-        <v>43453.623483796298</v>
+      <c r="Y18" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:25">
       <c r="A19">
         <v>173394</v>
       </c>
       <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
-        <v>74</v>
-      </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <v>4567859</v>
@@ -2712,75 +2677,72 @@
         <v>1041</v>
       </c>
       <c r="K19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19">
+        <v>142</v>
+      </c>
+      <c r="O19">
+        <v>47.204999999999998</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>44</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>161</v>
+      </c>
+      <c r="T19">
+        <v>37</v>
+      </c>
+      <c r="U19">
+        <v>516</v>
+      </c>
+      <c r="V19">
+        <v>161</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
         <v>84</v>
       </c>
-      <c r="L19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19">
-        <v>142</v>
-      </c>
-      <c r="P19">
-        <v>47.204999999999998</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-      <c r="R19">
-        <v>44</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>161</v>
-      </c>
-      <c r="U19">
-        <v>37</v>
-      </c>
-      <c r="V19">
-        <v>516</v>
-      </c>
-      <c r="W19">
-        <v>161</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>84</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>43453.619027777779</v>
+      <c r="Y19" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:25">
       <c r="A20">
         <v>173450</v>
       </c>
       <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20">
         <v>9255842</v>
@@ -2792,75 +2754,72 @@
         <v>1032</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>164</v>
       </c>
       <c r="O20">
-        <v>164</v>
+        <v>47.368000000000002</v>
       </c>
       <c r="P20">
-        <v>47.368000000000002</v>
+        <v>3</v>
       </c>
       <c r="Q20">
+        <v>52</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>189</v>
+      </c>
+      <c r="T20">
+        <v>37</v>
+      </c>
+      <c r="U20">
+        <v>600</v>
+      </c>
+      <c r="V20">
+        <v>190</v>
+      </c>
+      <c r="W20">
         <v>3</v>
       </c>
-      <c r="R20">
-        <v>52</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>189</v>
-      </c>
-      <c r="U20">
-        <v>37</v>
-      </c>
-      <c r="V20">
-        <v>600</v>
-      </c>
-      <c r="W20">
-        <v>190</v>
-      </c>
       <c r="X20">
-        <v>3</v>
-      </c>
-      <c r="Y20">
         <v>97</v>
       </c>
-      <c r="Z20" s="1">
-        <v>43453.624861111108</v>
+      <c r="Y20" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:25">
       <c r="A21">
         <v>173406</v>
       </c>
       <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>73</v>
       </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21">
         <v>287584</v>
@@ -2872,75 +2831,72 @@
         <v>1021</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>70</v>
-      </c>
-      <c r="N21" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N21">
+        <v>123</v>
       </c>
       <c r="O21">
-        <v>123</v>
+        <v>45.222999999999999</v>
       </c>
       <c r="P21">
-        <v>45.222999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="R21">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S21">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="T21">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="U21">
-        <v>13</v>
+        <v>480</v>
       </c>
       <c r="V21">
-        <v>480</v>
+        <v>157</v>
       </c>
       <c r="W21">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="X21">
-        <v>2</v>
-      </c>
-      <c r="Y21">
         <v>84</v>
       </c>
-      <c r="Z21" s="1">
-        <v>43453.627164351848</v>
+      <c r="Y21" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:25">
       <c r="A22">
         <v>173926</v>
       </c>
       <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>90</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>92</v>
       </c>
       <c r="H22">
         <v>110084468</v>
@@ -2952,7 +2908,7 @@
         <v>1145</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="L22" t="s">
         <v>33</v>
@@ -2960,67 +2916,64 @@
       <c r="M22" t="s">
         <v>34</v>
       </c>
-      <c r="N22" t="s">
-        <v>35</v>
+      <c r="N22">
+        <v>139</v>
       </c>
       <c r="O22">
-        <v>139</v>
+        <v>54.73</v>
       </c>
       <c r="P22">
-        <v>54.73</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="R22">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="T22">
-        <v>154</v>
+        <v>577</v>
       </c>
       <c r="U22">
-        <v>577</v>
+        <v>1011</v>
       </c>
       <c r="V22">
-        <v>1011</v>
+        <v>148</v>
       </c>
       <c r="W22">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="X22">
-        <v>3</v>
-      </c>
-      <c r="Y22">
         <v>61</v>
       </c>
-      <c r="Z22" s="1">
-        <v>43453.627291666664</v>
+      <c r="Y22" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:25">
       <c r="A23">
         <v>174351</v>
       </c>
       <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>94</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
         <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>97</v>
       </c>
       <c r="H23">
         <v>444</v>
@@ -3032,75 +2985,72 @@
         <v>1034</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>70</v>
-      </c>
-      <c r="N23" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N23">
+        <v>285</v>
       </c>
       <c r="O23">
-        <v>285</v>
+        <v>75.135000000000005</v>
       </c>
       <c r="P23">
-        <v>75.135000000000005</v>
+        <v>8</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="R23">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="T23">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="U23">
-        <v>471</v>
+        <v>1025</v>
       </c>
       <c r="V23">
-        <v>1025</v>
+        <v>185</v>
       </c>
       <c r="W23">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
         <v>46</v>
       </c>
-      <c r="Z23" s="1">
-        <v>43453.621736111112</v>
+      <c r="Y23" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:25">
       <c r="A24">
         <v>174378</v>
       </c>
       <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" t="s">
-        <v>102</v>
       </c>
       <c r="H24">
         <v>64006</v>
@@ -3112,75 +3062,72 @@
         <v>1025</v>
       </c>
       <c r="K24" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>70</v>
-      </c>
-      <c r="N24" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="N24">
+        <v>283</v>
       </c>
       <c r="O24">
-        <v>283</v>
+        <v>74.594999999999999</v>
       </c>
       <c r="P24">
-        <v>74.594999999999999</v>
+        <v>8</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="R24">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="T24">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="U24">
-        <v>471</v>
+        <v>1025</v>
       </c>
       <c r="V24">
-        <v>1025</v>
+        <v>185</v>
       </c>
       <c r="W24">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
         <v>47</v>
       </c>
-      <c r="Z24" s="1">
-        <v>43453.621319444443</v>
+      <c r="Y24" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:25">
       <c r="A25">
         <v>174449</v>
       </c>
       <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>105</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
         <v>106</v>
-      </c>
-      <c r="F25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>107</v>
       </c>
       <c r="H25">
         <v>3069448</v>
@@ -3192,7 +3139,7 @@
         <v>1143</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="L25" t="s">
         <v>33</v>
@@ -3200,67 +3147,64 @@
       <c r="M25" t="s">
         <v>34</v>
       </c>
-      <c r="N25" t="s">
-        <v>35</v>
+      <c r="N25">
+        <v>223</v>
       </c>
       <c r="O25">
-        <v>223</v>
+        <v>64.021000000000001</v>
       </c>
       <c r="P25">
-        <v>64.021000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="R25">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="S25">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="T25">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="U25">
-        <v>580</v>
+        <v>1140</v>
       </c>
       <c r="V25">
-        <v>1140</v>
+        <v>189</v>
       </c>
       <c r="W25">
-        <v>189</v>
+        <v>2</v>
       </c>
       <c r="X25">
-        <v>2</v>
-      </c>
-      <c r="Y25">
         <v>63</v>
       </c>
-      <c r="Z25" s="1">
-        <v>43453.628298611111</v>
+      <c r="Y25" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:25">
       <c r="A26">
         <v>174721</v>
       </c>
       <c r="B26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
         <v>111</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>112</v>
       </c>
       <c r="H26">
         <v>3287</v>
@@ -3272,75 +3216,72 @@
         <v>1155</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N26" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N26">
+        <v>182</v>
       </c>
       <c r="O26">
-        <v>182</v>
+        <v>48.947000000000003</v>
       </c>
       <c r="P26">
-        <v>48.947000000000003</v>
+        <v>6</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="R26">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="S26">
+        <v>190</v>
+      </c>
+      <c r="T26">
+        <v>553</v>
+      </c>
+      <c r="U26">
+        <v>1119</v>
+      </c>
+      <c r="V26">
+        <v>190</v>
+      </c>
+      <c r="W26">
         <v>1</v>
       </c>
-      <c r="T26">
-        <v>190</v>
-      </c>
-      <c r="U26">
-        <v>553</v>
-      </c>
-      <c r="V26">
-        <v>1119</v>
-      </c>
-      <c r="W26">
-        <v>190</v>
-      </c>
       <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
         <v>96</v>
       </c>
-      <c r="Z26" s="1">
-        <v>43453.634270833332</v>
+      <c r="Y26" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:25">
       <c r="A27">
         <v>158779</v>
       </c>
       <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>114</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>115</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
         <v>116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" t="s">
-        <v>117</v>
       </c>
       <c r="H27">
         <v>4437867</v>
@@ -3352,56 +3293,54 @@
         <v>1021</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M27" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <v>166</v>
       </c>
       <c r="O27">
-        <v>166</v>
+        <v>46.369</v>
       </c>
       <c r="P27">
-        <v>46.369</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="R27">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="T27">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="U27">
-        <v>31</v>
+        <v>561</v>
       </c>
       <c r="V27">
-        <v>561</v>
+        <v>179</v>
       </c>
       <c r="W27">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
         <v>94</v>
       </c>
-      <c r="Z27" s="1">
-        <v>43453.630046296297</v>
+      <c r="Y27" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
